--- a/course_material_microanalytic.xlsx
+++ b/course_material_microanalytic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDE5922-8F91-E84E-AEE6-E769E3866C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A473F4-56B2-2144-97FB-427D9EBDDE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="0" windowWidth="15760" windowHeight="18000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -39,6 +39,9 @@
     <t>Laufzeit</t>
   </si>
   <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
     <t>https://youtu.be/MK1jGJBydUM</t>
   </si>
   <si>
@@ -77,16 +80,10 @@
     <t>https://vimeo.com/541029802</t>
   </si>
   <si>
-    <t>youtube - german</t>
-  </si>
-  <si>
     <t>youtube - english</t>
   </si>
   <si>
     <t>vimeo</t>
-  </si>
-  <si>
-    <t>beschreibung</t>
   </si>
   <si>
     <t>1.3. Rasterelektronen-Mikroskop (REM)</t>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Das Elektronenstrahl-Labor ist in einer OLAT-Gruppe abgebildet, welche vielfältige Informationen rund um das Labor zur Verfügung stellt, bspw. welche Geräte es gibt, wie diese heißen, grundlegende Informationen zu den Geräten, Video-Tutorials zur Bedienung der Geräte, der Belegungskalender, aktuelle Informationen in einem Blog – und vieles mehr. Wer das Labor nutzt, sollte sich hier eintragen lassen – aber auch jede*r Andere, die/der sich für das Labor, bzw. die dort vorhandenen Geräte interessiert.</t>
+  </si>
+  <si>
+    <t>youtube - deutsch</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -548,24 +548,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>0.24583333333333335</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -574,61 +574,61 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>0.58680555555555558</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>0.26180555555555557</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3">
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>0.15694444444444444</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
